--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sema4a-Plxnd1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sema4a-Plxnd1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.860268666666667</v>
+        <v>10.727928</v>
       </c>
       <c r="H2">
-        <v>14.580806</v>
+        <v>32.183784</v>
       </c>
       <c r="I2">
-        <v>0.03812861294563102</v>
+        <v>0.08444350122097427</v>
       </c>
       <c r="J2">
-        <v>0.03812861294563102</v>
+        <v>0.08444350122097427</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>87.82520466666666</v>
+        <v>115.5833383333333</v>
       </c>
       <c r="N2">
-        <v>263.475614</v>
+        <v>346.750015</v>
       </c>
       <c r="O2">
-        <v>0.4113681414249258</v>
+        <v>0.5424469830058291</v>
       </c>
       <c r="P2">
-        <v>0.4113681414249257</v>
+        <v>0.5424469830058291</v>
       </c>
       <c r="Q2">
-        <v>426.8540903849872</v>
+        <v>1239.96973163964</v>
       </c>
       <c r="R2">
-        <v>3841.686813464884</v>
+        <v>11159.72758475676</v>
       </c>
       <c r="S2">
-        <v>0.0156848966425546</v>
+        <v>0.04580612247176653</v>
       </c>
       <c r="T2">
-        <v>0.0156848966425546</v>
+        <v>0.04580612247176653</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.860268666666667</v>
+        <v>10.727928</v>
       </c>
       <c r="H3">
-        <v>14.580806</v>
+        <v>32.183784</v>
       </c>
       <c r="I3">
-        <v>0.03812861294563102</v>
+        <v>0.08444350122097427</v>
       </c>
       <c r="J3">
-        <v>0.03812861294563102</v>
+        <v>0.08444350122097427</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>22.364335</v>
       </c>
       <c r="N3">
-        <v>67.09300500000001</v>
+        <v>67.09300499999999</v>
       </c>
       <c r="O3">
-        <v>0.1047532420570173</v>
+        <v>0.1049586058216753</v>
       </c>
       <c r="P3">
-        <v>0.1047532420570173</v>
+        <v>0.1049586058216753</v>
       </c>
       <c r="Q3">
-        <v>108.6966766513367</v>
+        <v>239.92297564788</v>
       </c>
       <c r="R3">
-        <v>978.2700898620301</v>
+        <v>2159.30678083092</v>
       </c>
       <c r="S3">
-        <v>0.00399409582119201</v>
+        <v>0.008863072158854395</v>
       </c>
       <c r="T3">
-        <v>0.003994095821192009</v>
+        <v>0.008863072158854396</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.860268666666667</v>
+        <v>10.727928</v>
       </c>
       <c r="H4">
-        <v>14.580806</v>
+        <v>32.183784</v>
       </c>
       <c r="I4">
-        <v>0.03812861294563102</v>
+        <v>0.08444350122097427</v>
       </c>
       <c r="J4">
-        <v>0.03812861294563102</v>
+        <v>0.08444350122097427</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>32.00656633333333</v>
+        <v>24.17635033333334</v>
       </c>
       <c r="N4">
-        <v>96.019699</v>
+        <v>72.52905100000001</v>
       </c>
       <c r="O4">
-        <v>0.1499168918069617</v>
+        <v>0.1134626191587213</v>
       </c>
       <c r="P4">
-        <v>0.1499168918069617</v>
+        <v>0.1134626191587213</v>
       </c>
       <c r="Q4">
-        <v>155.5605114774882</v>
+        <v>259.362145678776</v>
       </c>
       <c r="R4">
-        <v>1400.044603297394</v>
+        <v>2334.259311108985</v>
       </c>
       <c r="S4">
-        <v>0.005716123141719686</v>
+        <v>0.009581180819464422</v>
       </c>
       <c r="T4">
-        <v>0.005716123141719685</v>
+        <v>0.009581180819464425</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.860268666666667</v>
+        <v>10.727928</v>
       </c>
       <c r="H5">
-        <v>14.580806</v>
+        <v>32.183784</v>
       </c>
       <c r="I5">
-        <v>0.03812861294563102</v>
+        <v>0.08444350122097427</v>
       </c>
       <c r="J5">
-        <v>0.03812861294563102</v>
+        <v>0.08444350122097427</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>27.84771733333333</v>
+        <v>13.89256133333333</v>
       </c>
       <c r="N5">
-        <v>83.54315199999999</v>
+        <v>41.677684</v>
       </c>
       <c r="O5">
-        <v>0.1304370854109484</v>
+        <v>0.06519951828832743</v>
       </c>
       <c r="P5">
-        <v>0.1304370854109484</v>
+        <v>0.06519951828832744</v>
       </c>
       <c r="Q5">
-        <v>135.3473879933902</v>
+        <v>149.038397719584</v>
       </c>
       <c r="R5">
-        <v>1218.126491940512</v>
+        <v>1341.345579476256</v>
       </c>
       <c r="S5">
-        <v>0.004973385143390267</v>
+        <v>0.005505675602187312</v>
       </c>
       <c r="T5">
-        <v>0.004973385143390265</v>
+        <v>0.005505675602187313</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.860268666666667</v>
+        <v>10.727928</v>
       </c>
       <c r="H6">
-        <v>14.580806</v>
+        <v>32.183784</v>
       </c>
       <c r="I6">
-        <v>0.03812861294563102</v>
+        <v>0.08444350122097427</v>
       </c>
       <c r="J6">
-        <v>0.03812861294563102</v>
+        <v>0.08444350122097427</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.206563333333333</v>
+        <v>6.789615333333333</v>
       </c>
       <c r="N6">
-        <v>21.61969</v>
+        <v>20.368846</v>
       </c>
       <c r="O6">
-        <v>0.03375512275486358</v>
+        <v>0.03186450924886145</v>
       </c>
       <c r="P6">
-        <v>0.03375512275486357</v>
+        <v>0.03186450924886145</v>
       </c>
       <c r="Q6">
-        <v>35.02583396334889</v>
+        <v>72.838504443696</v>
       </c>
       <c r="R6">
-        <v>315.23250567014</v>
+        <v>655.546539993264</v>
       </c>
       <c r="S6">
-        <v>0.001287036010452456</v>
+        <v>0.002690750725661978</v>
       </c>
       <c r="T6">
-        <v>0.001287036010452456</v>
+        <v>0.002690750725661978</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.860268666666667</v>
+        <v>10.727928</v>
       </c>
       <c r="H7">
-        <v>14.580806</v>
+        <v>32.183784</v>
       </c>
       <c r="I7">
-        <v>0.03812861294563102</v>
+        <v>0.08444350122097427</v>
       </c>
       <c r="J7">
-        <v>0.03812861294563102</v>
+        <v>0.08444350122097427</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>36.24501033333333</v>
+        <v>30.271468</v>
       </c>
       <c r="N7">
-        <v>108.735031</v>
+        <v>90.814404</v>
       </c>
       <c r="O7">
-        <v>0.1697695165452834</v>
+        <v>0.1420677644765855</v>
       </c>
       <c r="P7">
-        <v>0.1697695165452833</v>
+        <v>0.1420677644765855</v>
       </c>
       <c r="Q7">
-        <v>176.1604880461096</v>
+        <v>324.750129158304</v>
       </c>
       <c r="R7">
-        <v>1585.444392414986</v>
+        <v>2922.751162424736</v>
       </c>
       <c r="S7">
-        <v>0.006473076186322011</v>
+        <v>0.01199669944303963</v>
       </c>
       <c r="T7">
-        <v>0.00647307618632201</v>
+        <v>0.01199669944303963</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>42.730565</v>
       </c>
       <c r="I8">
-        <v>0.1117398567564185</v>
+        <v>0.1121160432145089</v>
       </c>
       <c r="J8">
-        <v>0.1117398567564185</v>
+        <v>0.1121160432145089</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>87.82520466666666</v>
+        <v>115.5833383333333</v>
       </c>
       <c r="N8">
-        <v>263.475614</v>
+        <v>346.750015</v>
       </c>
       <c r="O8">
-        <v>0.4113681414249258</v>
+        <v>0.5424469830058291</v>
       </c>
       <c r="P8">
-        <v>0.4113681414249257</v>
+        <v>0.5424469830058291</v>
       </c>
       <c r="Q8">
-        <v>1250.940205549101</v>
+        <v>1646.313783856497</v>
       </c>
       <c r="R8">
-        <v>11258.46184994191</v>
+        <v>14816.82405470848</v>
       </c>
       <c r="S8">
-        <v>0.04596621719697532</v>
+        <v>0.06081700938826151</v>
       </c>
       <c r="T8">
-        <v>0.04596621719697531</v>
+        <v>0.0608170093882615</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>42.730565</v>
       </c>
       <c r="I9">
-        <v>0.1117398567564185</v>
+        <v>0.1121160432145089</v>
       </c>
       <c r="J9">
-        <v>0.1117398567564185</v>
+        <v>0.1121160432145089</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,25 +998,25 @@
         <v>22.364335</v>
       </c>
       <c r="N9">
-        <v>67.09300500000001</v>
+        <v>67.09300499999999</v>
       </c>
       <c r="O9">
-        <v>0.1047532420570173</v>
+        <v>0.1049586058216753</v>
       </c>
       <c r="P9">
-        <v>0.1047532420570173</v>
+        <v>0.1049586058216753</v>
       </c>
       <c r="Q9">
-        <v>318.5468901330917</v>
+        <v>318.5468901330916</v>
       </c>
       <c r="R9">
-        <v>2866.922011197825</v>
+        <v>2866.922011197824</v>
       </c>
       <c r="S9">
-        <v>0.01170511226222155</v>
+        <v>0.01176754358603755</v>
       </c>
       <c r="T9">
-        <v>0.01170511226222155</v>
+        <v>0.01176754358603755</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>42.730565</v>
       </c>
       <c r="I10">
-        <v>0.1117398567564185</v>
+        <v>0.1121160432145089</v>
       </c>
       <c r="J10">
-        <v>0.1117398567564185</v>
+        <v>0.1121160432145089</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>32.00656633333333</v>
+        <v>24.17635033333334</v>
       </c>
       <c r="N10">
-        <v>96.019699</v>
+        <v>72.52905100000001</v>
       </c>
       <c r="O10">
-        <v>0.1499168918069617</v>
+        <v>0.1134626191587213</v>
       </c>
       <c r="P10">
-        <v>0.1499168918069617</v>
+        <v>0.1134626191587213</v>
       </c>
       <c r="Q10">
-        <v>455.8862210444372</v>
+        <v>344.3563697937573</v>
       </c>
       <c r="R10">
-        <v>4102.975989399935</v>
+        <v>3099.207328143815</v>
       </c>
       <c r="S10">
-        <v>0.0167516920158774</v>
+        <v>0.01272097991283056</v>
       </c>
       <c r="T10">
-        <v>0.01675169201587739</v>
+        <v>0.01272097991283056</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>42.730565</v>
       </c>
       <c r="I11">
-        <v>0.1117398567564185</v>
+        <v>0.1121160432145089</v>
       </c>
       <c r="J11">
-        <v>0.1117398567564185</v>
+        <v>0.1121160432145089</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>27.84771733333333</v>
+        <v>13.89256133333333</v>
       </c>
       <c r="N11">
-        <v>83.54315199999999</v>
+        <v>41.677684</v>
       </c>
       <c r="O11">
-        <v>0.1304370854109484</v>
+        <v>0.06519951828832743</v>
       </c>
       <c r="P11">
-        <v>0.1304370854109484</v>
+        <v>0.06519951828832744</v>
       </c>
       <c r="Q11">
-        <v>396.6495652045422</v>
+        <v>197.8789983568289</v>
       </c>
       <c r="R11">
-        <v>3569.84608684088</v>
+        <v>1780.91098521146</v>
       </c>
       <c r="S11">
-        <v>0.0145750212395441</v>
+        <v>0.007309912009979282</v>
       </c>
       <c r="T11">
-        <v>0.0145750212395441</v>
+        <v>0.007309912009979282</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>42.730565</v>
       </c>
       <c r="I12">
-        <v>0.1117398567564185</v>
+        <v>0.1121160432145089</v>
       </c>
       <c r="J12">
-        <v>0.1117398567564185</v>
+        <v>0.1121160432145089</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.206563333333333</v>
+        <v>6.789615333333333</v>
       </c>
       <c r="N12">
-        <v>21.61969</v>
+        <v>20.368846</v>
       </c>
       <c r="O12">
-        <v>0.03375512275486358</v>
+        <v>0.03186450924886145</v>
       </c>
       <c r="P12">
-        <v>0.03375512275486357</v>
+        <v>0.03186450924886145</v>
       </c>
       <c r="Q12">
-        <v>102.6468409805389</v>
+        <v>96.70803310866555</v>
       </c>
       <c r="R12">
-        <v>923.8215688248499</v>
+        <v>870.3722979779899</v>
       </c>
       <c r="S12">
-        <v>0.00377179258142378</v>
+        <v>0.003572522695954469</v>
       </c>
       <c r="T12">
-        <v>0.003771792581423779</v>
+        <v>0.003572522695954468</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>42.730565</v>
       </c>
       <c r="I13">
-        <v>0.1117398567564185</v>
+        <v>0.1121160432145089</v>
       </c>
       <c r="J13">
-        <v>0.1117398567564185</v>
+        <v>0.1121160432145089</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>36.24501033333333</v>
+        <v>30.271468</v>
       </c>
       <c r="N13">
-        <v>108.735031</v>
+        <v>90.814404</v>
       </c>
       <c r="O13">
-        <v>0.1697695165452834</v>
+        <v>0.1420677644765855</v>
       </c>
       <c r="P13">
-        <v>0.1697695165452833</v>
+        <v>0.1420677644765855</v>
       </c>
       <c r="Q13">
-        <v>516.2565899913906</v>
+        <v>431.1723103398066</v>
       </c>
       <c r="R13">
-        <v>4646.309309922515</v>
+        <v>3880.55079305826</v>
       </c>
       <c r="S13">
-        <v>0.01897002146037639</v>
+        <v>0.01592807562144553</v>
       </c>
       <c r="T13">
-        <v>0.01897002146037638</v>
+        <v>0.01592807562144553</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>19.98160133333333</v>
+        <v>25.59360933333333</v>
       </c>
       <c r="H14">
-        <v>59.944804</v>
+        <v>76.780828</v>
       </c>
       <c r="I14">
-        <v>0.1567548618243542</v>
+        <v>0.2014567939856114</v>
       </c>
       <c r="J14">
-        <v>0.1567548618243542</v>
+        <v>0.2014567939856113</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>87.82520466666666</v>
+        <v>115.5833383333333</v>
       </c>
       <c r="N14">
-        <v>263.475614</v>
+        <v>346.750015</v>
       </c>
       <c r="O14">
-        <v>0.4113681414249258</v>
+        <v>0.5424469830058291</v>
       </c>
       <c r="P14">
-        <v>0.4113681414249257</v>
+        <v>0.5424469830058291</v>
       </c>
       <c r="Q14">
-        <v>1754.888226667739</v>
+        <v>2958.194806745825</v>
       </c>
       <c r="R14">
-        <v>15793.99404000966</v>
+        <v>26623.75326071242</v>
       </c>
       <c r="S14">
-        <v>0.06448395616800562</v>
+        <v>0.1092796301035217</v>
       </c>
       <c r="T14">
-        <v>0.06448395616800562</v>
+        <v>0.1092796301035217</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>19.98160133333333</v>
+        <v>25.59360933333333</v>
       </c>
       <c r="H15">
-        <v>59.944804</v>
+        <v>76.780828</v>
       </c>
       <c r="I15">
-        <v>0.1567548618243542</v>
+        <v>0.2014567939856114</v>
       </c>
       <c r="J15">
-        <v>0.1567548618243542</v>
+        <v>0.2014567939856113</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,25 +1370,25 @@
         <v>22.364335</v>
       </c>
       <c r="N15">
-        <v>67.09300500000001</v>
+        <v>67.09300499999999</v>
       </c>
       <c r="O15">
-        <v>0.1047532420570173</v>
+        <v>0.1049586058216753</v>
       </c>
       <c r="P15">
-        <v>0.1047532420570173</v>
+        <v>0.1049586058216753</v>
       </c>
       <c r="Q15">
-        <v>446.8752260551133</v>
+        <v>572.3840529897933</v>
       </c>
       <c r="R15">
-        <v>4021.87703449602</v>
+        <v>5151.456476908139</v>
       </c>
       <c r="S15">
-        <v>0.01642057998430087</v>
+        <v>0.02114462423003423</v>
       </c>
       <c r="T15">
-        <v>0.01642057998430087</v>
+        <v>0.02114462423003423</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>19.98160133333333</v>
+        <v>25.59360933333333</v>
       </c>
       <c r="H16">
-        <v>59.944804</v>
+        <v>76.780828</v>
       </c>
       <c r="I16">
-        <v>0.1567548618243542</v>
+        <v>0.2014567939856114</v>
       </c>
       <c r="J16">
-        <v>0.1567548618243542</v>
+        <v>0.2014567939856113</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>32.00656633333333</v>
+        <v>24.17635033333334</v>
       </c>
       <c r="N16">
-        <v>96.019699</v>
+        <v>72.52905100000001</v>
       </c>
       <c r="O16">
-        <v>0.1499168918069617</v>
+        <v>0.1134626191587213</v>
       </c>
       <c r="P16">
-        <v>0.1499168918069617</v>
+        <v>0.1134626191587213</v>
       </c>
       <c r="Q16">
-        <v>639.5424485215551</v>
+        <v>618.7600655371365</v>
       </c>
       <c r="R16">
-        <v>5755.882036693996</v>
+        <v>5568.840589834229</v>
       </c>
       <c r="S16">
-        <v>0.02350020166033694</v>
+        <v>0.0228578154929264</v>
       </c>
       <c r="T16">
-        <v>0.02350020166033693</v>
+        <v>0.0228578154929264</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>19.98160133333333</v>
+        <v>25.59360933333333</v>
       </c>
       <c r="H17">
-        <v>59.944804</v>
+        <v>76.780828</v>
       </c>
       <c r="I17">
-        <v>0.1567548618243542</v>
+        <v>0.2014567939856114</v>
       </c>
       <c r="J17">
-        <v>0.1567548618243542</v>
+        <v>0.2014567939856113</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>27.84771733333333</v>
+        <v>13.89256133333333</v>
       </c>
       <c r="N17">
-        <v>83.54315199999999</v>
+        <v>41.677684</v>
       </c>
       <c r="O17">
-        <v>0.1304370854109484</v>
+        <v>0.06519951828832743</v>
       </c>
       <c r="P17">
-        <v>0.1304370854109484</v>
+        <v>0.06519951828832744</v>
       </c>
       <c r="Q17">
-        <v>556.4419857980231</v>
+        <v>355.5607874047058</v>
       </c>
       <c r="R17">
-        <v>5007.977872182208</v>
+        <v>3200.047086642352</v>
       </c>
       <c r="S17">
-        <v>0.0204466473003647</v>
+        <v>0.01313488592377268</v>
       </c>
       <c r="T17">
-        <v>0.02044664730036469</v>
+        <v>0.01313488592377268</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>19.98160133333333</v>
+        <v>25.59360933333333</v>
       </c>
       <c r="H18">
-        <v>59.944804</v>
+        <v>76.780828</v>
       </c>
       <c r="I18">
-        <v>0.1567548618243542</v>
+        <v>0.2014567939856114</v>
       </c>
       <c r="J18">
-        <v>0.1567548618243542</v>
+        <v>0.2014567939856113</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>7.206563333333333</v>
+        <v>6.789615333333333</v>
       </c>
       <c r="N18">
-        <v>21.61969</v>
+        <v>20.368846</v>
       </c>
       <c r="O18">
-        <v>0.03375512275486358</v>
+        <v>0.03186450924886145</v>
       </c>
       <c r="P18">
-        <v>0.03375512275486357</v>
+        <v>0.03186450924886145</v>
       </c>
       <c r="Q18">
-        <v>143.9986755100844</v>
+        <v>173.7707623649431</v>
       </c>
       <c r="R18">
-        <v>1295.98807959076</v>
+        <v>1563.936861284488</v>
       </c>
       <c r="S18">
-        <v>0.005291279603302754</v>
+        <v>0.00641932187520049</v>
       </c>
       <c r="T18">
-        <v>0.005291279603302753</v>
+        <v>0.006419321875200489</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>19.98160133333333</v>
+        <v>25.59360933333333</v>
       </c>
       <c r="H19">
-        <v>59.944804</v>
+        <v>76.780828</v>
       </c>
       <c r="I19">
-        <v>0.1567548618243542</v>
+        <v>0.2014567939856114</v>
       </c>
       <c r="J19">
-        <v>0.1567548618243542</v>
+        <v>0.2014567939856113</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>36.24501033333333</v>
+        <v>30.271468</v>
       </c>
       <c r="N19">
-        <v>108.735031</v>
+        <v>90.814404</v>
       </c>
       <c r="O19">
-        <v>0.1697695165452834</v>
+        <v>0.1420677644765855</v>
       </c>
       <c r="P19">
-        <v>0.1697695165452833</v>
+        <v>0.1420677644765855</v>
       </c>
       <c r="Q19">
-        <v>724.2333468032137</v>
+        <v>774.7561259385013</v>
       </c>
       <c r="R19">
-        <v>6518.100121228924</v>
+        <v>6972.805133446512</v>
       </c>
       <c r="S19">
-        <v>0.0266121971080433</v>
+        <v>0.02862051636015584</v>
       </c>
       <c r="T19">
-        <v>0.0266121971080433</v>
+        <v>0.02862051636015584</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.987349666666667</v>
+        <v>3.404745666666667</v>
       </c>
       <c r="H20">
-        <v>17.962049</v>
+        <v>10.214237</v>
       </c>
       <c r="I20">
-        <v>0.04697051823002506</v>
+        <v>0.02680001626225246</v>
       </c>
       <c r="J20">
-        <v>0.04697051823002506</v>
+        <v>0.02680001626225246</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>87.82520466666666</v>
+        <v>115.5833383333333</v>
       </c>
       <c r="N20">
-        <v>263.475614</v>
+        <v>346.750015</v>
       </c>
       <c r="O20">
-        <v>0.4113681414249258</v>
+        <v>0.5424469830058291</v>
       </c>
       <c r="P20">
-        <v>0.4113681414249257</v>
+        <v>0.5424469830058291</v>
       </c>
       <c r="Q20">
-        <v>525.8402098858984</v>
+        <v>393.5318703292839</v>
       </c>
       <c r="R20">
-        <v>4732.561888973086</v>
+        <v>3541.786832963555</v>
       </c>
       <c r="S20">
-        <v>0.019322174786051</v>
+        <v>0.014537587965966</v>
       </c>
       <c r="T20">
-        <v>0.019322174786051</v>
+        <v>0.014537587965966</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.987349666666667</v>
+        <v>3.404745666666667</v>
       </c>
       <c r="H21">
-        <v>17.962049</v>
+        <v>10.214237</v>
       </c>
       <c r="I21">
-        <v>0.04697051823002506</v>
+        <v>0.02680001626225246</v>
       </c>
       <c r="J21">
-        <v>0.04697051823002506</v>
+        <v>0.02680001626225246</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1742,25 +1742,25 @@
         <v>22.364335</v>
       </c>
       <c r="N21">
-        <v>67.09300500000001</v>
+        <v>67.09300499999999</v>
       </c>
       <c r="O21">
-        <v>0.1047532420570173</v>
+        <v>0.1049586058216753</v>
       </c>
       <c r="P21">
-        <v>0.1047532420570173</v>
+        <v>0.1049586058216753</v>
       </c>
       <c r="Q21">
-        <v>133.9030937074717</v>
+        <v>76.14487267913167</v>
       </c>
       <c r="R21">
-        <v>1205.127843367245</v>
+        <v>685.3038541121849</v>
       </c>
       <c r="S21">
-        <v>0.004920314065693358</v>
+        <v>0.002812892342884244</v>
       </c>
       <c r="T21">
-        <v>0.004920314065693357</v>
+        <v>0.002812892342884244</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.987349666666667</v>
+        <v>3.404745666666667</v>
       </c>
       <c r="H22">
-        <v>17.962049</v>
+        <v>10.214237</v>
       </c>
       <c r="I22">
-        <v>0.04697051823002506</v>
+        <v>0.02680001626225246</v>
       </c>
       <c r="J22">
-        <v>0.04697051823002506</v>
+        <v>0.02680001626225246</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>32.00656633333333</v>
+        <v>24.17635033333334</v>
       </c>
       <c r="N22">
-        <v>96.019699</v>
+        <v>72.52905100000001</v>
       </c>
       <c r="O22">
-        <v>0.1499168918069617</v>
+        <v>0.1134626191587213</v>
       </c>
       <c r="P22">
-        <v>0.1499168918069617</v>
+        <v>0.1134626191587213</v>
       </c>
       <c r="Q22">
-        <v>191.6345042670279</v>
+        <v>82.3143240332319</v>
       </c>
       <c r="R22">
-        <v>1724.710538403251</v>
+        <v>740.8289162990872</v>
       </c>
       <c r="S22">
-        <v>0.007041674099607589</v>
+        <v>0.003040800038611489</v>
       </c>
       <c r="T22">
-        <v>0.007041674099607588</v>
+        <v>0.003040800038611489</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.987349666666667</v>
+        <v>3.404745666666667</v>
       </c>
       <c r="H23">
-        <v>17.962049</v>
+        <v>10.214237</v>
       </c>
       <c r="I23">
-        <v>0.04697051823002506</v>
+        <v>0.02680001626225246</v>
       </c>
       <c r="J23">
-        <v>0.04697051823002506</v>
+        <v>0.02680001626225246</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>27.84771733333333</v>
+        <v>13.89256133333333</v>
       </c>
       <c r="N23">
-        <v>83.54315199999999</v>
+        <v>41.677684</v>
       </c>
       <c r="O23">
-        <v>0.1304370854109484</v>
+        <v>0.06519951828832743</v>
       </c>
       <c r="P23">
-        <v>0.1304370854109484</v>
+        <v>0.06519951828832744</v>
       </c>
       <c r="Q23">
-        <v>166.7340210931609</v>
+        <v>47.30063799856756</v>
       </c>
       <c r="R23">
-        <v>1500.606189838448</v>
+        <v>425.705741987108</v>
       </c>
       <c r="S23">
-        <v>0.006126697498166287</v>
+        <v>0.001747348150418202</v>
       </c>
       <c r="T23">
-        <v>0.006126697498166286</v>
+        <v>0.001747348150418202</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.987349666666667</v>
+        <v>3.404745666666667</v>
       </c>
       <c r="H24">
-        <v>17.962049</v>
+        <v>10.214237</v>
       </c>
       <c r="I24">
-        <v>0.04697051823002506</v>
+        <v>0.02680001626225246</v>
       </c>
       <c r="J24">
-        <v>0.04697051823002506</v>
+        <v>0.02680001626225246</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>7.206563333333333</v>
+        <v>6.789615333333333</v>
       </c>
       <c r="N24">
-        <v>21.61969</v>
+        <v>20.368846</v>
       </c>
       <c r="O24">
-        <v>0.03375512275486358</v>
+        <v>0.03186450924886145</v>
       </c>
       <c r="P24">
-        <v>0.03375512275486357</v>
+        <v>0.03186450924886145</v>
       </c>
       <c r="Q24">
-        <v>43.14821457164555</v>
+        <v>23.11691338450022</v>
       </c>
       <c r="R24">
-        <v>388.33393114481</v>
+        <v>208.052220460502</v>
       </c>
       <c r="S24">
-        <v>0.001585495608714053</v>
+        <v>0.0008539693660581809</v>
       </c>
       <c r="T24">
-        <v>0.001585495608714053</v>
+        <v>0.0008539693660581807</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.987349666666667</v>
+        <v>3.404745666666667</v>
       </c>
       <c r="H25">
-        <v>17.962049</v>
+        <v>10.214237</v>
       </c>
       <c r="I25">
-        <v>0.04697051823002506</v>
+        <v>0.02680001626225246</v>
       </c>
       <c r="J25">
-        <v>0.04697051823002506</v>
+        <v>0.02680001626225246</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>36.24501033333333</v>
+        <v>30.271468</v>
       </c>
       <c r="N25">
-        <v>108.735031</v>
+        <v>90.814404</v>
       </c>
       <c r="O25">
-        <v>0.1697695165452834</v>
+        <v>0.1420677644765855</v>
       </c>
       <c r="P25">
-        <v>0.1697695165452833</v>
+        <v>0.1420677644765855</v>
       </c>
       <c r="Q25">
-        <v>217.0115505376132</v>
+        <v>103.0666494966387</v>
       </c>
       <c r="R25">
-        <v>1953.103954838519</v>
+        <v>927.5998454697481</v>
       </c>
       <c r="S25">
-        <v>0.007974162171792773</v>
+        <v>0.003807418398314344</v>
       </c>
       <c r="T25">
-        <v>0.007974162171792771</v>
+        <v>0.003807418398314344</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>58.46038166666667</v>
+        <v>63.59848400000001</v>
       </c>
       <c r="H26">
-        <v>175.381145</v>
+        <v>190.795452</v>
       </c>
       <c r="I26">
-        <v>0.4586193517468507</v>
+        <v>0.5006072618408804</v>
       </c>
       <c r="J26">
-        <v>0.4586193517468507</v>
+        <v>0.5006072618408803</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>87.82520466666666</v>
+        <v>115.5833383333333</v>
       </c>
       <c r="N26">
-        <v>263.475614</v>
+        <v>346.750015</v>
       </c>
       <c r="O26">
-        <v>0.4113681414249258</v>
+        <v>0.5424469830058291</v>
       </c>
       <c r="P26">
-        <v>0.4113681414249257</v>
+        <v>0.5424469830058291</v>
       </c>
       <c r="Q26">
-        <v>5134.294984766448</v>
+        <v>7350.925093659088</v>
       </c>
       <c r="R26">
-        <v>46208.65486289803</v>
+        <v>66158.32584293179</v>
       </c>
       <c r="S26">
-        <v>0.1886613903496063</v>
+        <v>0.2715528988563947</v>
       </c>
       <c r="T26">
-        <v>0.1886613903496062</v>
+        <v>0.2715528988563946</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>58.46038166666667</v>
+        <v>63.59848400000001</v>
       </c>
       <c r="H27">
-        <v>175.381145</v>
+        <v>190.795452</v>
       </c>
       <c r="I27">
-        <v>0.4586193517468507</v>
+        <v>0.5006072618408804</v>
       </c>
       <c r="J27">
-        <v>0.4586193517468507</v>
+        <v>0.5006072618408803</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2114,25 +2114,25 @@
         <v>22.364335</v>
       </c>
       <c r="N27">
-        <v>67.09300500000001</v>
+        <v>67.09300499999999</v>
       </c>
       <c r="O27">
-        <v>0.1047532420570173</v>
+        <v>0.1049586058216753</v>
       </c>
       <c r="P27">
-        <v>0.1047532420570173</v>
+        <v>0.1049586058216753</v>
       </c>
       <c r="Q27">
-        <v>1307.427559821192</v>
+        <v>1422.33780166814</v>
       </c>
       <c r="R27">
-        <v>11766.84803839073</v>
+        <v>12801.04021501326</v>
       </c>
       <c r="S27">
-        <v>0.0480418639655702</v>
+        <v>0.05254304026702516</v>
       </c>
       <c r="T27">
-        <v>0.0480418639655702</v>
+        <v>0.05254304026702516</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>58.46038166666667</v>
+        <v>63.59848400000001</v>
       </c>
       <c r="H28">
-        <v>175.381145</v>
+        <v>190.795452</v>
       </c>
       <c r="I28">
-        <v>0.4586193517468507</v>
+        <v>0.5006072618408804</v>
       </c>
       <c r="J28">
-        <v>0.4586193517468507</v>
+        <v>0.5006072618408803</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>32.00656633333333</v>
+        <v>24.17635033333334</v>
       </c>
       <c r="N28">
-        <v>96.019699</v>
+        <v>72.52905100000001</v>
       </c>
       <c r="O28">
-        <v>0.1499168918069617</v>
+        <v>0.1134626191587213</v>
       </c>
       <c r="P28">
-        <v>0.1499168918069617</v>
+        <v>0.1134626191587213</v>
       </c>
       <c r="Q28">
-        <v>1871.116083686151</v>
+        <v>1537.579229852895</v>
       </c>
       <c r="R28">
-        <v>16840.04475317536</v>
+        <v>13838.21306867605</v>
       </c>
       <c r="S28">
-        <v>0.06875478773641154</v>
+        <v>0.0568002110983421</v>
       </c>
       <c r="T28">
-        <v>0.06875478773641153</v>
+        <v>0.0568002110983421</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>58.46038166666667</v>
+        <v>63.59848400000001</v>
       </c>
       <c r="H29">
-        <v>175.381145</v>
+        <v>190.795452</v>
       </c>
       <c r="I29">
-        <v>0.4586193517468507</v>
+        <v>0.5006072618408804</v>
       </c>
       <c r="J29">
-        <v>0.4586193517468507</v>
+        <v>0.5006072618408803</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>27.84771733333333</v>
+        <v>13.89256133333333</v>
       </c>
       <c r="N29">
-        <v>83.54315199999999</v>
+        <v>41.677684</v>
       </c>
       <c r="O29">
-        <v>0.1304370854109484</v>
+        <v>0.06519951828832743</v>
       </c>
       <c r="P29">
-        <v>0.1304370854109484</v>
+        <v>0.06519951828832744</v>
       </c>
       <c r="Q29">
-        <v>1627.988183852116</v>
+        <v>883.5458396770188</v>
       </c>
       <c r="R29">
-        <v>14651.89365466904</v>
+        <v>7951.912557093168</v>
       </c>
       <c r="S29">
-        <v>0.05982097155491775</v>
+        <v>0.032639352323664</v>
       </c>
       <c r="T29">
-        <v>0.05982097155491774</v>
+        <v>0.032639352323664</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>58.46038166666667</v>
+        <v>63.59848400000001</v>
       </c>
       <c r="H30">
-        <v>175.381145</v>
+        <v>190.795452</v>
       </c>
       <c r="I30">
-        <v>0.4586193517468507</v>
+        <v>0.5006072618408804</v>
       </c>
       <c r="J30">
-        <v>0.4586193517468507</v>
+        <v>0.5006072618408803</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>7.206563333333333</v>
+        <v>6.789615333333333</v>
       </c>
       <c r="N30">
-        <v>21.61969</v>
+        <v>20.368846</v>
       </c>
       <c r="O30">
-        <v>0.03375512275486358</v>
+        <v>0.03186450924886145</v>
       </c>
       <c r="P30">
-        <v>0.03375512275486357</v>
+        <v>0.03186450924886145</v>
       </c>
       <c r="Q30">
-        <v>421.2984429716722</v>
+        <v>431.8092421431547</v>
       </c>
       <c r="R30">
-        <v>3791.68598674505</v>
+        <v>3886.283179288392</v>
       </c>
       <c r="S30">
-        <v>0.0154807525159709</v>
+        <v>0.01595160472497594</v>
       </c>
       <c r="T30">
-        <v>0.0154807525159709</v>
+        <v>0.01595160472497594</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>58.46038166666667</v>
+        <v>63.59848400000001</v>
       </c>
       <c r="H31">
-        <v>175.381145</v>
+        <v>190.795452</v>
       </c>
       <c r="I31">
-        <v>0.4586193517468507</v>
+        <v>0.5006072618408804</v>
       </c>
       <c r="J31">
-        <v>0.4586193517468507</v>
+        <v>0.5006072618408803</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>36.24501033333333</v>
+        <v>30.271468</v>
       </c>
       <c r="N31">
-        <v>108.735031</v>
+        <v>90.814404</v>
       </c>
       <c r="O31">
-        <v>0.1697695165452834</v>
+        <v>0.1420677644765855</v>
       </c>
       <c r="P31">
-        <v>0.1697695165452833</v>
+        <v>0.1420677644765855</v>
       </c>
       <c r="Q31">
-        <v>2118.897137598944</v>
+        <v>1925.219473254512</v>
       </c>
       <c r="R31">
-        <v>19070.0742383905</v>
+        <v>17326.97525929061</v>
       </c>
       <c r="S31">
-        <v>0.0778595856243741</v>
+        <v>0.07112015457047856</v>
       </c>
       <c r="T31">
-        <v>0.07785958562437409</v>
+        <v>0.07112015457047856</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>23.937254</v>
+        <v>9.474383</v>
       </c>
       <c r="H32">
-        <v>71.811762</v>
+        <v>28.423149</v>
       </c>
       <c r="I32">
-        <v>0.1877867984967205</v>
+        <v>0.07457638347577257</v>
       </c>
       <c r="J32">
-        <v>0.1877867984967205</v>
+        <v>0.07457638347577256</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>87.82520466666666</v>
+        <v>115.5833383333333</v>
       </c>
       <c r="N32">
-        <v>263.475614</v>
+        <v>346.750015</v>
       </c>
       <c r="O32">
-        <v>0.4113681414249258</v>
+        <v>0.5424469830058291</v>
       </c>
       <c r="P32">
-        <v>0.4113681414249257</v>
+        <v>0.5424469830058291</v>
       </c>
       <c r="Q32">
-        <v>2102.294231707985</v>
+        <v>1095.080815788582</v>
       </c>
       <c r="R32">
-        <v>18920.64808537187</v>
+        <v>9855.727342097234</v>
       </c>
       <c r="S32">
-        <v>0.07724950628173297</v>
+        <v>0.0404537342199186</v>
       </c>
       <c r="T32">
-        <v>0.07724950628173297</v>
+        <v>0.04045373421991859</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>23.937254</v>
+        <v>9.474383</v>
       </c>
       <c r="H33">
-        <v>71.811762</v>
+        <v>28.423149</v>
       </c>
       <c r="I33">
-        <v>0.1877867984967205</v>
+        <v>0.07457638347577257</v>
       </c>
       <c r="J33">
-        <v>0.1877867984967205</v>
+        <v>0.07457638347577256</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2486,25 +2486,25 @@
         <v>22.364335</v>
       </c>
       <c r="N33">
-        <v>67.09300500000001</v>
+        <v>67.09300499999999</v>
       </c>
       <c r="O33">
-        <v>0.1047532420570173</v>
+        <v>0.1049586058216753</v>
       </c>
       <c r="P33">
-        <v>0.1047532420570173</v>
+        <v>0.1049586058216753</v>
       </c>
       <c r="Q33">
-        <v>535.34076743609</v>
+        <v>211.888275330305</v>
       </c>
       <c r="R33">
-        <v>4818.066906924811</v>
+        <v>1906.994477972745</v>
       </c>
       <c r="S33">
-        <v>0.0196712759580393</v>
+        <v>0.007827433236839711</v>
       </c>
       <c r="T33">
-        <v>0.01967127595803929</v>
+        <v>0.007827433236839711</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>23.937254</v>
+        <v>9.474383</v>
       </c>
       <c r="H34">
-        <v>71.811762</v>
+        <v>28.423149</v>
       </c>
       <c r="I34">
-        <v>0.1877867984967205</v>
+        <v>0.07457638347577257</v>
       </c>
       <c r="J34">
-        <v>0.1877867984967205</v>
+        <v>0.07457638347577256</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>32.00656633333333</v>
+        <v>24.17635033333334</v>
       </c>
       <c r="N34">
-        <v>96.019699</v>
+        <v>72.52905100000001</v>
       </c>
       <c r="O34">
-        <v>0.1499168918069617</v>
+        <v>0.1134626191587213</v>
       </c>
       <c r="P34">
-        <v>0.1499168918069617</v>
+        <v>0.1134626191587213</v>
       </c>
       <c r="Q34">
-        <v>766.1493079888486</v>
+        <v>229.0560026001777</v>
       </c>
       <c r="R34">
-        <v>6895.343771899638</v>
+        <v>2061.504023401599</v>
       </c>
       <c r="S34">
-        <v>0.02815241315300857</v>
+        <v>0.00846163179654634</v>
       </c>
       <c r="T34">
-        <v>0.02815241315300857</v>
+        <v>0.008461631796546342</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>23.937254</v>
+        <v>9.474383</v>
       </c>
       <c r="H35">
-        <v>71.811762</v>
+        <v>28.423149</v>
       </c>
       <c r="I35">
-        <v>0.1877867984967205</v>
+        <v>0.07457638347577257</v>
       </c>
       <c r="J35">
-        <v>0.1877867984967205</v>
+        <v>0.07457638347577256</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>27.84771733333333</v>
+        <v>13.89256133333333</v>
       </c>
       <c r="N35">
-        <v>83.54315199999999</v>
+        <v>41.677684</v>
       </c>
       <c r="O35">
-        <v>0.1304370854109484</v>
+        <v>0.06519951828832743</v>
       </c>
       <c r="P35">
-        <v>0.1304370854109484</v>
+        <v>0.06519951828832744</v>
       </c>
       <c r="Q35">
-        <v>666.5978831282026</v>
+        <v>131.6234469229907</v>
       </c>
       <c r="R35">
-        <v>5999.380948153824</v>
+        <v>1184.611022306916</v>
       </c>
       <c r="S35">
-        <v>0.02449436267456529</v>
+        <v>0.004862344278305953</v>
       </c>
       <c r="T35">
-        <v>0.02449436267456529</v>
+        <v>0.004862344278305953</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>23.937254</v>
+        <v>9.474383</v>
       </c>
       <c r="H36">
-        <v>71.811762</v>
+        <v>28.423149</v>
       </c>
       <c r="I36">
-        <v>0.1877867984967205</v>
+        <v>0.07457638347577257</v>
       </c>
       <c r="J36">
-        <v>0.1877867984967205</v>
+        <v>0.07457638347577256</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>7.206563333333333</v>
+        <v>6.789615333333333</v>
       </c>
       <c r="N36">
-        <v>21.61969</v>
+        <v>20.368846</v>
       </c>
       <c r="O36">
-        <v>0.03375512275486358</v>
+        <v>0.03186450924886145</v>
       </c>
       <c r="P36">
-        <v>0.03375512275486357</v>
+        <v>0.03186450924886145</v>
       </c>
       <c r="Q36">
-        <v>172.5053369770866</v>
+        <v>64.32741609067266</v>
       </c>
       <c r="R36">
-        <v>1552.54803279378</v>
+        <v>578.9467448160539</v>
       </c>
       <c r="S36">
-        <v>0.006338766434999633</v>
+        <v>0.002376339861010394</v>
       </c>
       <c r="T36">
-        <v>0.006338766434999632</v>
+        <v>0.002376339861010393</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>23.937254</v>
+        <v>9.474383</v>
       </c>
       <c r="H37">
-        <v>71.811762</v>
+        <v>28.423149</v>
       </c>
       <c r="I37">
-        <v>0.1877867984967205</v>
+        <v>0.07457638347577257</v>
       </c>
       <c r="J37">
-        <v>0.1877867984967205</v>
+        <v>0.07457638347577256</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>36.24501033333333</v>
+        <v>30.271468</v>
       </c>
       <c r="N37">
-        <v>108.735031</v>
+        <v>90.814404</v>
       </c>
       <c r="O37">
-        <v>0.1697695165452834</v>
+        <v>0.1420677644765855</v>
       </c>
       <c r="P37">
-        <v>0.1697695165452833</v>
+        <v>0.1420677644765855</v>
       </c>
       <c r="Q37">
-        <v>867.6060185816247</v>
+        <v>286.803481804244</v>
       </c>
       <c r="R37">
-        <v>7808.454167234622</v>
+        <v>2581.231336238196</v>
       </c>
       <c r="S37">
-        <v>0.03188047399437479</v>
+        <v>0.01059490008315158</v>
       </c>
       <c r="T37">
-        <v>0.03188047399437478</v>
+        <v>0.01059490008315158</v>
       </c>
     </row>
   </sheetData>
